--- a/PastaDocumentos/orcamento.xlsx
+++ b/PastaDocumentos/orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Desktop\clone_repositorio\2TDSS-exemplo-git\PastaDocumentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E1391E-2CB6-4352-82F6-81F515591AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C996FB-5374-4EAE-A071-1ECF3803F14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,13 +39,13 @@
     <t>Salários</t>
   </si>
   <si>
-    <t>R$120.000</t>
-  </si>
-  <si>
     <t>Telefonia</t>
   </si>
   <si>
-    <t>R$34.000</t>
+    <t>R$200.000</t>
+  </si>
+  <si>
+    <t>R$40.000</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,12 +393,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
